--- a/data/case1/12/Q_device_14.xlsx
+++ b/data/case1/12/Q_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.046731926932664904</v>
+        <v>-0.016905092561658057</v>
       </c>
       <c r="B1" s="0">
-        <v>0.046731926916259367</v>
+        <v>0.016905092549975662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.027653265210974769</v>
+        <v>5.0534636183585651e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.027653265253129486</v>
+        <v>-5.0534843535883265e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.017954572844093457</v>
+        <v>-0.036479060795776778</v>
       </c>
       <c r="B3" s="0">
-        <v>0.017954572799621569</v>
+        <v>0.036479060783700959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.02929578940877392</v>
+        <v>0.056931894823101473</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.02929578943612841</v>
+        <v>-0.056931894842964841</v>
       </c>
     </row>
     <row r="5">
